--- a/A Team Documents/TestCases.xlsx
+++ b/A Team Documents/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
   <si>
     <t>Step &amp; Input</t>
   </si>
@@ -103,9 +103,6 @@
     <t xml:space="preserve">Find Directory &gt; Click Open </t>
   </si>
   <si>
-    <t>Will show Image on UI</t>
-  </si>
-  <si>
     <t>User Interface / Open File Dialog</t>
   </si>
   <si>
@@ -146,10 +143,6 @@
     <t>Calibrate Button Will Enable</t>
   </si>
   <si>
-    <t>U! 013 
-Disable Black/White Calibration Drop down</t>
-  </si>
-  <si>
     <t>Black/White Calibration drop down is disable</t>
   </si>
   <si>
@@ -309,9 +302,6 @@
     <t>Open an information regarding about the application</t>
   </si>
   <si>
-    <t>Interface Test Cases</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -360,18 +350,6 @@
     <t>Save File Dialog Should Appear</t>
   </si>
   <si>
-    <t>BB 012</t>
-  </si>
-  <si>
-    <t>Click Browse Button &gt; Enter a Name</t>
-  </si>
-  <si>
-    <t>Save the output excel to a location</t>
-  </si>
-  <si>
-    <t>System Test Cases</t>
-  </si>
-  <si>
     <t>BW 011
 Black/White Calibration Textbox</t>
   </si>
@@ -379,16 +357,10 @@
     <t>Enter Default 32</t>
   </si>
   <si>
-    <t>Image should stay the same</t>
-  </si>
-  <si>
     <t>Will show Error Dialog</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Calibrate Button Enable</t>
   </si>
   <si>
     <t xml:space="preserve">UI 015 
@@ -433,9 +405,6 @@
     <t>Disable Image Menu Run</t>
   </si>
   <si>
-    <t>Form is not fixed</t>
-  </si>
-  <si>
     <t>Let user enter frame rate</t>
   </si>
   <si>
@@ -463,28 +432,10 @@
     <t>Run open excel software and generate data</t>
   </si>
   <si>
-    <t>Save file dialog appear</t>
-  </si>
-  <si>
-    <t>let user save excel to output</t>
-  </si>
-  <si>
-    <t>Open file dialog appear</t>
-  </si>
-  <si>
-    <t>Unhandled Error Exception</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Did not show single file</t>
   </si>
   <si>
     <t>Error Dialog box show not letting user except other extension</t>
-  </si>
-  <si>
-    <t>Show a calibrate Image</t>
   </si>
   <si>
     <t>LB 041 
@@ -505,9 +456,6 @@
     <t>Base/Needle Height Input Enable</t>
   </si>
   <si>
-    <t>Show About Information</t>
-  </si>
-  <si>
     <t>Run Image Processing and open excel with data and graph</t>
   </si>
   <si>
@@ -515,9 +463,6 @@
 Frame Rate Textbox</t>
   </si>
   <si>
-    <t>Enter Default 1</t>
-  </si>
-  <si>
     <t>BW 012
 Black/White Calibration Textbox</t>
   </si>
@@ -525,9 +470,6 @@
     <t>Enter Higher than 32 value</t>
   </si>
   <si>
-    <t>Image should Alter dramtically</t>
-  </si>
-  <si>
     <t>BW 013
 Black/White Calibration Textbox</t>
   </si>
@@ -535,15 +477,6 @@
     <t>Enter Lower than 32 value</t>
   </si>
   <si>
-    <t>Image should Focus Better</t>
-  </si>
-  <si>
-    <t>Enter Higher than 1</t>
-  </si>
-  <si>
-    <t>Image should stay the same  but result for data should change</t>
-  </si>
-  <si>
     <t>FR 012
 Frame Rate Textbox</t>
   </si>
@@ -562,24 +495,9 @@
     <t>Enter a value</t>
   </si>
   <si>
-    <t>Image should stay the same but data should be alter depend on the value unter</t>
-  </si>
-  <si>
-    <t>User Interface/Excel Data</t>
-  </si>
-  <si>
-    <t>User Interface/ Excel Data</t>
-  </si>
-  <si>
     <t>Open File Dialog Appeared</t>
   </si>
   <si>
-    <t>Rejected single file</t>
-  </si>
-  <si>
-    <t>Showed Unhandle Error Exception</t>
-  </si>
-  <si>
     <t>Showed Error Dialog</t>
   </si>
   <si>
@@ -637,17 +555,274 @@
     <t>Results after fix</t>
   </si>
   <si>
-    <t>Pass or Fail after fix</t>
-  </si>
-  <si>
-    <t>Form is fixed</t>
+    <t>Image Processing</t>
+  </si>
+  <si>
+    <t>Initial processed image is displayed</t>
+  </si>
+  <si>
+    <t>Enter Default 250</t>
+  </si>
+  <si>
+    <t>The time interval between images is .004 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter FPS Other than 250 </t>
+  </si>
+  <si>
+    <t>The time interval between images is 1/FPS seconds</t>
+  </si>
+  <si>
+    <t>Excel Data</t>
+  </si>
+  <si>
+    <t>More pixels from the original image are identified as part of the experiment (displayed in black in the PictureBox) than in the Initial processed image</t>
+  </si>
+  <si>
+    <t>Less pixels from the original image are identified as part of the experiment (displayed in black in the PictureBox) than in the Initial processed image</t>
+  </si>
+  <si>
+    <t>Pass/ Fail</t>
+  </si>
+  <si>
+    <t>Pass/Fail after fix</t>
+  </si>
+  <si>
+    <t>Data units are in centimeters (shown in table header)</t>
+  </si>
+  <si>
+    <t>Data units are in pixels (shown in table header)</t>
+  </si>
+  <si>
+    <t>UI 013 
+Disable Black/White Calibration Drop down</t>
+  </si>
+  <si>
+    <t>Form is fixed and user cannot maximize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form is not fixed, is maximizable </t>
+  </si>
+  <si>
+    <t>Names an Excel file that will be created after Running, will display file path in 'Save Destination' textbox</t>
+  </si>
+  <si>
+    <t>Click Browse Button &gt; Enter a Name &gt; Click Save</t>
+  </si>
+  <si>
+    <t>Name/Path of file is displayed in 'Save Destination' textbox</t>
+  </si>
+  <si>
+    <t>Run with an Excel application currently open</t>
+  </si>
+  <si>
+    <t>Open Excel applications close and new output Excel file opens</t>
+  </si>
+  <si>
+    <t>Open Excel applications will close and then output Excel file will open</t>
+  </si>
+  <si>
+    <t>More pixels from the original image will be identified as part of the experiment (displayed in black in the PictureBox) than in the Initial processed image</t>
+  </si>
+  <si>
+    <t>Less pixels from the original image will be identified as part of the experiment (displayed in black in the PictureBox) than in the Initial processed image</t>
+  </si>
+  <si>
+    <t>Initial processed image will be displayed</t>
+  </si>
+  <si>
+    <t>The time interval between images will be .004 seconds</t>
+  </si>
+  <si>
+    <t>The time interval between images will be 1/FPS seconds</t>
+  </si>
+  <si>
+    <t>Data units will be in pixels (shown in table header)</t>
+  </si>
+  <si>
+    <t>Data units will be in centimeters (shown in table header)</t>
+  </si>
+  <si>
+    <t>Tool should not allow the application to close during spreadsheet generation</t>
+  </si>
+  <si>
+    <t>Will show 5th Image in folder processed on UI</t>
+  </si>
+  <si>
+    <t>Will not allow selection of single file</t>
+  </si>
+  <si>
+    <t>Find Image Directory &gt; Select single file</t>
+  </si>
+  <si>
+    <t>Did not allow selection of single file</t>
+  </si>
+  <si>
+    <t>FR 012
+Enter Frame Rate</t>
+  </si>
+  <si>
+    <t>BB 021</t>
+  </si>
+  <si>
+    <t>Excel Processing/IO</t>
+  </si>
+  <si>
+    <t>RN 021
+Run Button</t>
+  </si>
+  <si>
+    <t>RN 031
+Run Button</t>
+  </si>
+  <si>
+    <t>RN 041
+Run Button</t>
+  </si>
+  <si>
+    <t>RN 022
+Run Button</t>
+  </si>
+  <si>
+    <t>Tool should be able to close and only some processed images will be created and saved</t>
+  </si>
+  <si>
+    <t>Image Processing/IO</t>
+  </si>
+  <si>
+    <t>Tool should complete Excel creation and then stop.</t>
+  </si>
+  <si>
+    <t>Tool should safely  stop saving processed images.</t>
+  </si>
+  <si>
+    <t>Run &gt;  Click 'Stop' while Tool is 'Generating Spreadsheet/Data Plots'</t>
+  </si>
+  <si>
+    <t>Run  &gt;  Click 'Stop' while Tool is 'Saving Processed Images'</t>
+  </si>
+  <si>
+    <t>Run &gt; Click Close/Exit the application while 'Generating Spreadsheet/Data Plots'</t>
+  </si>
+  <si>
+    <t>Run &gt; Click Close/Exit the application while 'Saving Processed Images'</t>
+  </si>
+  <si>
+    <t>RN 012 
+Run Button</t>
+  </si>
+  <si>
+    <t>User Interface/Image Processing/Excel Data</t>
+  </si>
+  <si>
+    <t>Save file dialog appeared</t>
+  </si>
+  <si>
+    <t>Open file dialog appeared</t>
+  </si>
+  <si>
+    <t>Showed 5th Image processed</t>
+  </si>
+  <si>
+    <t>Will show fifth Image processed on UI</t>
+  </si>
+  <si>
+    <t>Black/White Input Enabled</t>
+  </si>
+  <si>
+    <t>Base/Needle Height Input Enabled</t>
+  </si>
+  <si>
+    <t>Showed About Information</t>
+  </si>
+  <si>
+    <t>Tool can close and IO exception occurs</t>
+  </si>
+  <si>
+    <t>User Interface/Excel Processing/IO</t>
+  </si>
+  <si>
+    <t>Run &gt; Click Close/Exit the application while 'Calculating Drop Measurements'</t>
+  </si>
+  <si>
+    <t>Tool should allow the application to close with no other effects.</t>
+  </si>
+  <si>
+    <t>Tool can close</t>
+  </si>
+  <si>
+    <t>RN 023
+Run Button</t>
+  </si>
+  <si>
+    <t>Tool should allow the application to stop processing.</t>
+  </si>
+  <si>
+    <t>RN 042
+Run Button</t>
+  </si>
+  <si>
+    <t>RN 043
+Run Button</t>
+  </si>
+  <si>
+    <t>Run  &gt;  Click 'Stop' &gt; Click 'Run' again (at any point during processing)</t>
+  </si>
+  <si>
+    <t>Tool can close but IO exception may occur are processed(as shown by progress bar and label), otherwise only some processed images are created and saved. INCONSISTENT RESULTS - sometimes breaks</t>
+  </si>
+  <si>
+    <t>Run &gt;  Click 'Stop' while Tool is 'Processing Images: ' or 'Calculating Drop Measurements'</t>
+  </si>
+  <si>
+    <t>Tool stopped processing.</t>
+  </si>
+  <si>
+    <t>Tool does not stop, continues processing and creates the Excel file and saves images.</t>
+  </si>
+  <si>
+    <t>Tool does not stop, continues creating and saving images.</t>
+  </si>
+  <si>
+    <t>Tool should just continue to as stoppable point and then restart  processing all images.</t>
+  </si>
+  <si>
+    <t>Invalid Operation Exception</t>
+  </si>
+  <si>
+    <t>Accepted Directory</t>
+  </si>
+  <si>
+    <t>LB 024
+Reject Directory with less than 5 images</t>
+  </si>
+  <si>
+    <t>Find Image Directory &gt; Open Directory with less than 5 images</t>
+  </si>
+  <si>
+    <t>IndexOutOfRange Exception</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Interface Test</t>
+  </si>
+  <si>
+    <t>System Test</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Integration Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -691,6 +866,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -878,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -888,9 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -902,13 +1095,49 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
@@ -1407,1169 +1636,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="5" width="14.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="56.25">
-      <c r="A1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="37.5">
+      <c r="A1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="63">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="47.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="63">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="47.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="63">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="63">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="47.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="63">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="63">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="47.25">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="78.75">
       <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="47.25">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="47.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="47.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="78.75">
+      <c r="A15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="63">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="18.75">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="47.25">
+      <c r="A28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="63">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="78.75">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="31.5">
+      <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="94.5">
+      <c r="A39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="47.25">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="47.25">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="78.75">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="63">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="63">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="37.5">
+      <c r="A52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="78.75">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="94.5">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="63">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="78.75">
-      <c r="A35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="31.5">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="47.25">
-      <c r="A48" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="63">
-      <c r="A52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A53" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="78.75">
-      <c r="A54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="2"/>
+      <c r="G53" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1">
+      <c r="G54" s="14"/>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="18.75">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1">
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1">
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1">
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1">
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1">
+      <c r="I60" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2584,177 +2927,460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="37.5">
-      <c r="A1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37.5">
+      <c r="A1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="37.5">
-      <c r="A2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="37.5">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="63">
+      <c r="F2" s="2"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="63">
+        <v>186</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="126">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="63">
+        <v>184</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="126">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="18.75">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="47.25">
+        <v>185</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="110.25">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="37.5">
-      <c r="A9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="47.25">
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="141.75">
+        <v>189</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A11" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="78.75">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="78.75">
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="126">
+      <c r="A16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="94.5">
+      <c r="A17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="78.75">
+      <c r="A18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="94.5">
+      <c r="A19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="110.25">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="110.25">
+      <c r="A21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="141.75">
+      <c r="A22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/A Team Documents/TestCases.xlsx
+++ b/A Team Documents/TestCases.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
-    <sheet name="System" sheetId="2" r:id="rId2"/>
+    <sheet name="Integration" sheetId="3" r:id="rId2"/>
+    <sheet name="System" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="247">
   <si>
     <t>Step &amp; Input</t>
   </si>
@@ -585,9 +582,6 @@
     <t>Pass/ Fail</t>
   </si>
   <si>
-    <t>Pass/Fail after fix</t>
-  </si>
-  <si>
     <t>Data units are in centimeters (shown in table header)</t>
   </si>
   <si>
@@ -687,9 +681,6 @@
     <t>Tool should be able to close and only some processed images will be created and saved</t>
   </si>
   <si>
-    <t>Image Processing/IO</t>
-  </si>
-  <si>
     <t>Tool should complete Excel creation and then stop.</t>
   </si>
   <si>
@@ -712,9 +703,6 @@
 Run Button</t>
   </si>
   <si>
-    <t>User Interface/Image Processing/Excel Data</t>
-  </si>
-  <si>
     <t>Save file dialog appeared</t>
   </si>
   <si>
@@ -816,6 +804,18 @@
   </si>
   <si>
     <t>Integration Test</t>
+  </si>
+  <si>
+    <t>Pass/ Fail after fix</t>
+  </si>
+  <si>
+    <t>User Interface/ Image Processing/ Excel Data</t>
+  </si>
+  <si>
+    <t>Excel Processing/ IO</t>
+  </si>
+  <si>
+    <t>Image Processing/ IO</t>
   </si>
 </sst>
 </file>
@@ -860,29 +860,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -896,7 +896,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -904,6 +904,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1074,7 +1089,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1097,19 +1112,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,22 +1127,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1638,1256 +1650,1258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="14.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="11" style="14"/>
+    <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.25" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="37.5">
-      <c r="A1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.25">
+      <c r="A1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="89.25">
+      <c r="A8" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="78.75">
-      <c r="A8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="47.25">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="38.25">
+      <c r="A11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A12" s="4" t="s">
+      <c r="G11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="25.5">
+      <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="78.75">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="63.75">
+      <c r="A25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="I25" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1">
+      <c r="A26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F27" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51">
+      <c r="A28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="25.5">
+      <c r="A29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F31" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="51">
+      <c r="A33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="25.5">
+      <c r="A34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F35" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="76.5">
+      <c r="A36" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F36" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1">
+      <c r="A37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="51">
+      <c r="A38" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F38" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="114.75">
+      <c r="A39" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="63">
-      <c r="A25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F39" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1">
+      <c r="A40" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="51">
+      <c r="A41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F41" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A42" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A44" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="63.75">
+      <c r="A45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="51">
+      <c r="A46" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A47" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="47.25">
-      <c r="A28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F47" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A48" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="F48" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="38.25">
+      <c r="A49" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F49" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1">
+      <c r="A50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="63.75">
+      <c r="A51" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F51" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1">
+      <c r="A52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="89.25">
+      <c r="A53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="63">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="78.75">
-      <c r="A36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="31.5">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="94.5">
-      <c r="A39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" ht="47.25">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="47.25">
-      <c r="A47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="63">
-      <c r="A49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="63">
-      <c r="A51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="37.5">
-      <c r="A52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="63">
-      <c r="A53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="11"/>
+      <c r="G53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1">
-      <c r="G54" s="14"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" ht="18.75">
       <c r="A55" s="4"/>
@@ -2896,499 +2910,562 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="13"/>
+      <c r="G55" s="9"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1">
-      <c r="I56" s="14"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1">
-      <c r="I57" s="14"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1">
-      <c r="I58" s="14"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1">
-      <c r="I59" s="14"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1">
-      <c r="I60" s="14"/>
+      <c r="I60" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="A1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="63.75">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="63.75">
+      <c r="A4" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="76.5">
+      <c r="A5" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="76.5">
+      <c r="A6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="63.75">
+      <c r="A8" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="63.75">
+      <c r="A9" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="76.5">
+      <c r="A10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="196.5" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="11" style="15"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="37.5">
-      <c r="A1" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="25.5">
+      <c r="A1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="37.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="25.5">
+      <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="47.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="51">
+      <c r="A3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="102">
+      <c r="A4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="102">
+      <c r="A5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="18.75">
+      <c r="A6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="38.25">
+      <c r="A7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="126">
-      <c r="A4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="126">
-      <c r="A5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="47.25">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="38.25">
+      <c r="A8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="47.25">
-      <c r="A8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="25.5">
+      <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="38.25">
+      <c r="A10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5">
-      <c r="A9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="47.25">
-      <c r="A10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="38.25">
+      <c r="A11" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="47.25">
-      <c r="A11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="78.75">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="78.75">
-      <c r="A15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="126">
-      <c r="A16" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="94.5">
-      <c r="A17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="78.75">
-      <c r="A18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="94.5">
-      <c r="A19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="110.25">
-      <c r="A20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="110.25">
-      <c r="A21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="141.75">
-      <c r="A22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/A Team Documents/TestCases.xlsx
+++ b/A Team Documents/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="System" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="250">
   <si>
     <t>Step &amp; Input</t>
   </si>
@@ -816,6 +815,15 @@
   </si>
   <si>
     <t>Image Processing/ IO</t>
+  </si>
+  <si>
+    <t>Tool does stop at a stoppable point, is able to start over on run</t>
+  </si>
+  <si>
+    <t>Message box says appropriate folder was not selected</t>
+  </si>
+  <si>
+    <t>Tool can close with no issue</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1659,10 +1667,11 @@
     <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
     <col min="3" max="4" width="10.25" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.25">
@@ -1854,8 +1863,12 @@
       <c r="G8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="63.75">
       <c r="A9" s="16" t="s">
@@ -2070,7 +2083,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="38.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="51">
       <c r="A18" s="16" t="s">
         <v>105</v>
       </c>
@@ -2379,7 +2392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="51">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="76.5">
       <c r="A31" s="16" t="s">
         <v>55</v>
       </c>
@@ -2797,7 +2810,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="38.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="51">
       <c r="A49" s="16" t="s">
         <v>129</v>
       </c>
@@ -2938,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3020,7 +3033,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="63.75">
+    <row r="4" spans="1:9" ht="76.5">
       <c r="A4" s="16" t="s">
         <v>209</v>
       </c>
@@ -3045,7 +3058,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="76.5">
+    <row r="5" spans="1:9" ht="114.75">
       <c r="A5" s="16" t="s">
         <v>198</v>
       </c>
@@ -3070,7 +3083,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="76.5">
+    <row r="6" spans="1:9" ht="89.25">
       <c r="A6" s="16" t="s">
         <v>201</v>
       </c>
@@ -3092,10 +3105,14 @@
       <c r="G6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="51">
+      <c r="H6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="89.25">
       <c r="A7" s="16" t="s">
         <v>222</v>
       </c>
@@ -3117,10 +3134,14 @@
       <c r="G7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="63.75">
+      <c r="H7" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="102">
       <c r="A8" s="16" t="s">
         <v>199</v>
       </c>
@@ -3142,10 +3163,14 @@
       <c r="G8" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="63.75">
+      <c r="H8" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="102">
       <c r="A9" s="16" t="s">
         <v>200</v>
       </c>
@@ -3170,7 +3195,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="76.5">
+    <row r="10" spans="1:9" ht="89.25">
       <c r="A10" s="16" t="s">
         <v>224</v>
       </c>
@@ -3192,8 +3217,12 @@
       <c r="G10" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="196.5" customHeight="1">
       <c r="A11" s="16" t="s">
@@ -3217,11 +3246,16 @@
       <c r="G11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3301,7 +3335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="102">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="114.75">
       <c r="A4" s="16" t="s">
         <v>133</v>
       </c>
@@ -3324,7 +3358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="102">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="114.75">
       <c r="A5" s="16" t="s">
         <v>135</v>
       </c>
@@ -3358,7 +3392,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="38.25">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="51">
       <c r="A7" s="16" t="s">
         <v>132</v>
       </c>
@@ -3381,7 +3415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="38.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="51">
       <c r="A8" s="16" t="s">
         <v>137</v>
       </c>
@@ -3438,7 +3472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="38.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="51">
       <c r="A11" s="16" t="s">
         <v>140</v>
       </c>
